--- a/data-raw/nadp/nadp_2023-01-11.xlsx
+++ b/data-raw/nadp/nadp_2023-01-11.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/_data/Copeland.2023.hypoxia.flux/data-raw/nadp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8354C40C-82A5-3149-936F-579DF8E9D305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B7A7E-AAE3-A94F-A578-5337DADFF07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="4200" windowWidth="27640" windowHeight="16940" xr2:uid="{EDBF2FAC-12B1-6349-9AE1-BAB3096C537D}"/>
+    <workbookView xWindow="2040" yWindow="2600" windowWidth="27640" windowHeight="16940" xr2:uid="{EDBF2FAC-12B1-6349-9AE1-BAB3096C537D}"/>
   </bookViews>
   <sheets>
-    <sheet name="nad" sheetId="1" r:id="rId1"/>
+    <sheet name="nadp" sheetId="1" r:id="rId1"/>
     <sheet name="dna" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -88,10 +88,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +445,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1026,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H25"/>
+      <selection activeCell="F18" sqref="F18:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,47 +1064,119 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" s="2">
+        <v>45479</v>
+      </c>
+      <c r="G2" s="2">
+        <v>47505</v>
+      </c>
+      <c r="H2" s="2">
+        <v>47532</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3">
         <f t="shared" ref="E3:E7" si="0">E4/2</f>
         <v>1.5625</v>
       </c>
+      <c r="F3" s="2">
+        <v>594246</v>
+      </c>
+      <c r="G3" s="2">
+        <v>592748</v>
+      </c>
+      <c r="H3" s="2">
+        <v>607592</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4">
         <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
+      <c r="F4" s="2">
+        <v>1094433</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1084946</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1085169</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
+      <c r="F5" s="2">
+        <v>2116238</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2083453</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2167345</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
+      <c r="F6" s="2">
+        <v>3969176</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4062854</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4039748</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="F7" s="2">
+        <v>7683769</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7525415</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7405485</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E8">
         <f>E9/2</f>
         <v>50</v>
       </c>
+      <c r="F8" s="2">
+        <v>14950687</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15095009</v>
+      </c>
+      <c r="H8" s="2">
+        <v>15088696</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>100</v>
       </c>
+      <c r="F9" s="2">
+        <v>32258614</v>
+      </c>
+      <c r="G9" s="2">
+        <v>31554882</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32605324</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1110,6 +1190,15 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="F10">
+        <v>7110940</v>
+      </c>
+      <c r="G10">
+        <v>7055460</v>
+      </c>
+      <c r="H10">
+        <v>7593087</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,6 +1214,15 @@
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F11">
+        <v>6999632</v>
+      </c>
+      <c r="G11">
+        <v>7918300</v>
+      </c>
+      <c r="H11">
+        <v>7455102</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1139,6 +1237,15 @@
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>6945892</v>
+      </c>
+      <c r="G12">
+        <v>7045710</v>
+      </c>
+      <c r="H12">
+        <v>7908128</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1153,6 +1260,15 @@
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F13">
+        <v>6540020</v>
+      </c>
+      <c r="G13">
+        <v>6804756</v>
+      </c>
+      <c r="H13">
+        <v>6497860</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1167,6 +1283,15 @@
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>6447102</v>
+      </c>
+      <c r="G14">
+        <v>6393064</v>
+      </c>
+      <c r="H14">
+        <v>6894206</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1181,6 +1306,15 @@
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F15">
+        <v>5488896</v>
+      </c>
+      <c r="G15">
+        <v>5820153</v>
+      </c>
+      <c r="H15">
+        <v>5711590</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1195,8 +1329,17 @@
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>2610636</v>
+      </c>
+      <c r="G16">
+        <v>3904350</v>
+      </c>
+      <c r="H16">
+        <v>3136986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1209,8 +1352,17 @@
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>2710910</v>
+      </c>
+      <c r="G17">
+        <v>3625672</v>
+      </c>
+      <c r="H17">
+        <v>3231936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1223,8 +1375,17 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>6466554</v>
+      </c>
+      <c r="G18">
+        <v>5465786</v>
+      </c>
+      <c r="H18">
+        <v>4856718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1237,8 +1398,17 @@
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>5479005</v>
+      </c>
+      <c r="G19">
+        <v>4911644</v>
+      </c>
+      <c r="H19">
+        <v>4144374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1251,8 +1421,17 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>4634501</v>
+      </c>
+      <c r="G20">
+        <v>5218002</v>
+      </c>
+      <c r="H20">
+        <v>4121988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1265,8 +1444,17 @@
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>3217068</v>
+      </c>
+      <c r="G21">
+        <v>3201932</v>
+      </c>
+      <c r="H21">
+        <v>4213901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1279,8 +1467,17 @@
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>3417824</v>
+      </c>
+      <c r="G22">
+        <v>3797327</v>
+      </c>
+      <c r="H22">
+        <v>3236893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1293,8 +1490,17 @@
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>2583024</v>
+      </c>
+      <c r="G23">
+        <v>3146347</v>
+      </c>
+      <c r="H23">
+        <v>3609966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1307,8 +1513,17 @@
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>2580380</v>
+      </c>
+      <c r="G24">
+        <v>3082436</v>
+      </c>
+      <c r="H24">
+        <v>2653759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
@@ -1320,6 +1535,15 @@
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1733593</v>
+      </c>
+      <c r="G25">
+        <v>1932103</v>
+      </c>
+      <c r="H25">
+        <v>2108261</v>
       </c>
     </row>
   </sheetData>
